--- a/medicine/Hématologie/Anticoagulant/Anticoagulant.xlsx
+++ b/medicine/Hématologie/Anticoagulant/Anticoagulant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un anticoagulant est une substance chimique ayant la propriété d'inhiber la coagulabilité naturelle du sang. Le sang ainsi traité ne coagulera pas ou alors moins vite, mais gardera la même viscosité. L'usage principal de l'anticoagulant est à visée médicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Coagulation et anticoagulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coagulation est un phénomène physiologique, procédant en cascade et faisant intervenir plusieurs protéines plasmatiques. Ce processus une fois mis en jeu aboutit à la formation d'un caillot (un clou plaquettaire), qui dans le fonctionnement physiologique non pathologique permet de freiner ou de juguler les hémorragies. La coagulation du sang peut être induite par un processus mécanique : en cas de stase, le sang immobile coagule par disparition de l'effet de pompe ; ou encore par mise en jeu de réactions physiologiques.
 La coagulation sanguine naturelle est régulée par la présence de divers facteurs de coagulation qui de concert se chargent d'un équilibre normal entre les tendances naturelles à la coagulation et celles à l'anticoagulation.
@@ -545,7 +559,9 @@
           <t>Indications et usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anticoagulants sont principalement indiqués en prévention et/ou en traitement des troubles thrombo-emboliques. 
 Ces troubles sont induits par un ralentissement de la perfusion du plasma sanguin dans les tissus et les causes sont nombreuses. Elles peuvent être mécaniques ou fonctionnelles : le flux sanguin normal peut être perturbé, provoquant une stase sanguine et induisant un risque de formation d'un thrombus.
@@ -554,8 +570,43 @@
 En prévention, les anticoagulants sont indiqués par exemple en cas de pose de valve cardiaque mécanique (la valve mécanique, corps étranger, favorise la formation de caillots; une valve dite biologique en péricarde de veau ou équin nécessitant que 3 mois d'anticoagulation après sa mise en place en l'absence d'autre facteur de risque thromboembolique ), en cas d'alitement prolongé ou de perte de la mobilité majeure, pour des causes mécaniques.
 Les anticoagulants sont également indiqués en traitement de maladies ou de syndromes agissant sur la concentration des thrombocytes, comme dans le cas de la coagulation intravasculaire disséminée.
 Certains anticoagulants sont indiqués en renfort thérapeutique ou en relais d'autres anticoagulants en cas d'hémostase augmentée.
-Autres usages
-Des anticoagulants sont notamment utilisés comme raticides (ex : warfarine, Bromadiolone...), avec des apparitions de phénomènes de résistance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anticoagulant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticoagulant</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Indications et usages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres usages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des anticoagulants sont notamment utilisés comme raticides (ex : warfarine, Bromadiolone...), avec des apparitions de phénomènes de résistance.
 Les anticoagulants sont par ailleurs utilisables in vitro afin de rendre le sang prélevé incoagulable lors de la mise en place de dispositifs médicaux comme la circulation extra-corporelle (héparine) ou encore en technique laboratoire (citrate, héparine, oxalate, EDTA).
 Des substances anticoagulantes sont présentes dans la salive des animaux hémophages et facilitent le passage du sang après la morsure ou piqûre entre autres de :
 moustiques,
@@ -568,33 +619,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Anticoagulant</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anticoagulant</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Spécialités médicamenteuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux produits sont disponibles ou en cours d'études[1] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux produits sont disponibles ou en cours d'études : 
 Héparine et dérivés :
 Héparine de bas poids moléculaire ;
 Fondaparinux disponible commercialement, idraparinux en cours de développement ;
@@ -616,31 +669,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anticoagulant</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anticoagulant</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cliniquement, l'emploi d'un anticoagulant à visée curative doit voir diminuer la manifestation (disparition de la thrombose par exemple). Un surdosage peut provoquer des saignements inopinés s'extériorisant aux orifices naturels (epistaxis, gingivorragie, métrorragie...) et se traduit biologiquement par une augmentation de l'INR ou du temps de Quick pour la plupart.
 </t>
